--- a/PM.xlsx
+++ b/PM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GIT\Javascript\fnaxml\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CD07908-1BF5-4032-9950-D46EF456F760}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312AA3FE-633D-4DD3-BF22-6A14CA2D5E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7064483B-4434-4F12-8B6D-A941CA909DF1}"/>
   </bookViews>
@@ -295,12 +295,6 @@
     <t>AP1-1</t>
   </si>
   <si>
-    <t>AICPA FN</t>
-  </si>
-  <si>
-    <t>AICPA BB</t>
-  </si>
-  <si>
     <t>AACSB</t>
   </si>
   <si>
@@ -319,7 +313,13 @@
     <t>Difficulty</t>
   </si>
   <si>
-    <t>Est Time</t>
+    <t>BB</t>
+  </si>
+  <si>
+    <t>FN</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -796,28 +796,28 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="H1" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="D1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>82</v>

--- a/PM.xlsx
+++ b/PM.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\GIT\Javascript\fnaxml\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/Akshay/MyScripts/JS/node/xml/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312AA3FE-633D-4DD3-BF22-6A14CA2D5E0E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC62F44C-E85F-6945-A214-EBBC4076D1E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7064483B-4434-4F12-8B6D-A941CA909DF1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{7064483B-4434-4F12-8B6D-A941CA909DF1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
     <externalReference r:id="rId3"/>
     <externalReference r:id="rId4"/>
     <externalReference r:id="rId5"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="Algo">'[1]Problem map'!$AG$7:$AG$1090</definedName>
@@ -55,7 +56,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="100">
   <si>
     <t>01-05</t>
   </si>
@@ -320,13 +323,64 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Worksheet</t>
+  </si>
+  <si>
+    <t>Select All That Apply</t>
+  </si>
+  <si>
+    <t>Multiple Choice</t>
+  </si>
+  <si>
+    <t>LODescription</t>
+  </si>
+  <si>
+    <t>01-01  Define tax, taxpayer, incidence, and jurisdiction.</t>
+  </si>
+  <si>
+    <t>01-02  Express the relationship between tax base, rate, and revenue as a formula.</t>
+  </si>
+  <si>
+    <t>01-03  Describe the taxes levied by local governments.</t>
+  </si>
+  <si>
+    <t>01-04  Describe the taxes levied by state governments.</t>
+  </si>
+  <si>
+    <t>01-05  Describe the taxes levied by the federal government.</t>
+  </si>
+  <si>
+    <t>01-06  Explain the structure of the value-added tax levied by foreign governments.</t>
+  </si>
+  <si>
+    <t>02-01  Explain the concept of sufficiency of a good tax.</t>
+  </si>
+  <si>
+    <t>02-02  Differentiate between the income effect and the substitution effect.</t>
+  </si>
+  <si>
+    <t>02-06  Differentiate between regressive, proportionate, and progressive rate structures.</t>
+  </si>
+  <si>
+    <t>02-07  Explain the difference between marginal and average tax rates.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -334,6 +388,12 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -357,12 +417,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -775,26 +836,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B488869-8407-4030-B979-C4348A012DB7}">
-  <dimension ref="A1:I30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="66.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>76</v>
       </c>
@@ -822,8 +884,14 @@
       <c r="I1" s="2" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J1" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>73</v>
       </c>
@@ -851,8 +919,14 @@
       <c r="I2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>84</v>
+      </c>
+      <c r="K2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -880,8 +954,14 @@
       <c r="I3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J3" t="s">
+        <v>84</v>
+      </c>
+      <c r="K3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>68</v>
       </c>
@@ -909,8 +989,14 @@
       <c r="I4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>63</v>
       </c>
@@ -938,8 +1024,14 @@
       <c r="I5" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>60</v>
       </c>
@@ -967,8 +1059,14 @@
       <c r="I6" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J6" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>59</v>
       </c>
@@ -996,8 +1094,14 @@
       <c r="I7" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>57</v>
       </c>
@@ -1025,8 +1129,14 @@
       <c r="I8" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>54</v>
       </c>
@@ -1054,8 +1164,14 @@
       <c r="I9" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J9" t="s">
+        <v>85</v>
+      </c>
+      <c r="K9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>53</v>
       </c>
@@ -1083,8 +1199,14 @@
       <c r="I10" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J10" t="s">
+        <v>85</v>
+      </c>
+      <c r="K10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" t="s">
         <v>52</v>
       </c>
@@ -1112,8 +1234,14 @@
       <c r="I11" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -1141,8 +1269,14 @@
       <c r="I12" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J12" t="s">
+        <v>85</v>
+      </c>
+      <c r="K12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1170,8 +1304,14 @@
       <c r="I13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J13" t="s">
+        <v>85</v>
+      </c>
+      <c r="K13" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" t="s">
         <v>47</v>
       </c>
@@ -1199,8 +1339,14 @@
       <c r="I14" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J14" t="s">
+        <v>84</v>
+      </c>
+      <c r="K14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>44</v>
       </c>
@@ -1228,8 +1374,14 @@
       <c r="I15" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K15" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>43</v>
       </c>
@@ -1257,8 +1409,14 @@
       <c r="I16" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J16" t="s">
+        <v>85</v>
+      </c>
+      <c r="K16" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1286,8 +1444,14 @@
       <c r="I17" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -1315,8 +1479,14 @@
       <c r="I18" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J18" t="s">
+        <v>85</v>
+      </c>
+      <c r="K18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1344,8 +1514,14 @@
       <c r="I19" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J19" t="s">
+        <v>85</v>
+      </c>
+      <c r="K19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" t="s">
         <v>33</v>
       </c>
@@ -1373,8 +1549,14 @@
       <c r="I20" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J20" t="s">
+        <v>85</v>
+      </c>
+      <c r="K20" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A21" t="s">
         <v>30</v>
       </c>
@@ -1402,8 +1584,14 @@
       <c r="I21" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J21" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1431,8 +1619,14 @@
       <c r="I22" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J22" t="s">
+        <v>85</v>
+      </c>
+      <c r="K22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1460,8 +1654,14 @@
       <c r="I23" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J23" t="s">
+        <v>85</v>
+      </c>
+      <c r="K23" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1489,8 +1689,14 @@
       <c r="I24" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J24" t="s">
+        <v>85</v>
+      </c>
+      <c r="K24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -1518,8 +1724,14 @@
       <c r="I25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J25" t="s">
+        <v>85</v>
+      </c>
+      <c r="K25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" t="s">
         <v>17</v>
       </c>
@@ -1547,8 +1759,14 @@
       <c r="I26" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J26" t="s">
+        <v>85</v>
+      </c>
+      <c r="K26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" t="s">
         <v>16</v>
       </c>
@@ -1576,8 +1794,14 @@
       <c r="I27" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J27" t="s">
+        <v>85</v>
+      </c>
+      <c r="K27" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1605,8 +1829,14 @@
       <c r="I28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J28" t="s">
+        <v>85</v>
+      </c>
+      <c r="K28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1634,8 +1864,14 @@
       <c r="I29" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J29" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" t="s">
         <v>8</v>
       </c>
@@ -1662,10 +1898,89 @@
       </c>
       <c r="I30" t="s">
         <v>0</v>
+      </c>
+      <c r="J30" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D709A1B-4707-2549-A7EA-E644DA9477EF}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="70" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>